--- a/tableau.xlsx
+++ b/tableau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="2800" windowWidth="12220" windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16580" yWindow="2760" windowWidth="12220" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,17 +415,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
